--- a/OnlineTestMaker.xlsx
+++ b/OnlineTestMaker.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mean\OTM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mean\OTMR2\OTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{02B719CA-3EEC-4CA5-B816-0781528B6B9B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" xr2:uid="{909458EC-E4AA-4697-910E-006362DEB4ED}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>Users</t>
   </si>
@@ -187,12 +186,24 @@
   </si>
   <si>
     <t>BookMarked</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>UserRoles</t>
+  </si>
+  <si>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -546,42 +557,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E12E72-328A-41FB-8DCF-659442AABBC8}">
-  <dimension ref="A1:M15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -589,22 +604,25 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>40</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -612,213 +630,236 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>31</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>41</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>32</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>42</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>43</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>44</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="G10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" t="s">
         <v>8</v>
       </c>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" t="s">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I15" t="s">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
         <v>11</v>
       </c>
     </row>
